--- a/example/source.xlsx
+++ b/example/source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e7e2bbaaba7cc9b1/デスクトップ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_AD4D066CA252ABDACC1048F24114E71673EEDF53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{941C153F-2243-422E-AC5E-A9D64A520ABE}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_AD4D066CA252ABDACC1048F24114E71673EEDF53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF4D1545-837D-4EB1-9A75-4A57E5E0EE64}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2292" yWindow="3660" windowWidth="20304" windowHeight="12696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="設定" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>データベース</t>
     <phoneticPr fontId="1"/>
@@ -106,13 +106,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>変換</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>自動生成</t>
     <rPh sb="0" eb="4">
       <t>ジドウセイセイ</t>
@@ -145,6 +138,28 @@
   </si>
   <si>
     <t>Server=localhost;User ID=sa;Password=P@ssw0rd;encrypt=false</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変換メソッド</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動生成メソッド</t>
+    <rPh sb="0" eb="4">
+      <t>ジドウセイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DateTime.Now()</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -231,6 +246,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -499,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -522,7 +541,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -534,10 +553,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725DE6E1-31F3-408D-93FF-D9ECE43EC57B}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -546,29 +565,31 @@
     <col min="2" max="3" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -583,13 +604,19 @@
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2"/>
       <c r="B5" s="2">
         <v>0</v>
@@ -603,12 +630,14 @@
       <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
         <v>20</v>
       </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2"/>
       <c r="B6" s="2">
         <v>5</v>
@@ -617,34 +646,40 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
         <v>10</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
         <v>5</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
